--- a/NMB_Map/src/algorithm/data/nodes/marked.xlsx
+++ b/NMB_Map/src/algorithm/data/nodes/marked.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\code\python\mapDemo\data\nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\code\软件工程\NMBNavigation-Backend\NMB_Map\src\algorithm\data\nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96558BC6-F295-40EE-A712-FB4EB6FAF3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9D2A0D-E289-4E64-A99F-2631C1AEE244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>A1_26</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,6 +112,62 @@
   </si>
   <si>
     <t>nodeName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4_34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5_34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4_28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5_28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4_16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5_16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4_38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5_38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4_14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5_14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4_16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5_16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4_20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5_20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -449,9 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -482,94 +540,164 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/NMB_Map/src/algorithm/data/nodes/marked.xlsx
+++ b/NMB_Map/src/algorithm/data/nodes/marked.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\code\软件工程\NMBNavigation-Backend\NMB_Map\src\algorithm\data\nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9D2A0D-E289-4E64-A99F-2631C1AEE244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F1090E-BE2B-4842-AA5A-61FFFCF5EC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="toilet" sheetId="1" r:id="rId1"/>
+    <sheet name="vendingMachine" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>A1_26</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -168,6 +169,90 @@
   </si>
   <si>
     <t>G5_20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1_36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2_41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1_7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2_8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3_29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4_29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5_29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4_19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_53</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5_53</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1_34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2_28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1_32</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -220,9 +305,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -705,4 +793,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB138F8B-B23A-4A52-93DF-541DF0966169}">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>